--- a/data/Do not call list.xlsx
+++ b/data/Do not call list.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\GitHub\coverageQc\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6270" windowWidth="24345" windowHeight="5220"/>
+    <workbookView xWindow="-20" yWindow="6270" windowWidth="24350" windowHeight="5220"/>
   </bookViews>
   <sheets>
-    <sheet name="Specimen6" sheetId="1" r:id="rId1"/>
+    <sheet name="Always_Not_Real" sheetId="1" r:id="rId1"/>
+    <sheet name="Not_Real_When_Percentage_Low" sheetId="2" r:id="rId2"/>
+    <sheet name="Undetermined_Importance" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="232">
   <si>
     <t>Gene_0</t>
   </si>
@@ -685,9 +692,6 @@
     <t>NP_004439.2:p.Ser783Pro</t>
   </si>
   <si>
-    <t xml:space="preserve">The following Variants in yellow shade are undetermined yet. Most likely not real mutation. </t>
-  </si>
-  <si>
     <t>KRAS</t>
   </si>
   <si>
@@ -707,9 +711,6 @@
   </si>
   <si>
     <t>rs1137282</t>
-  </si>
-  <si>
-    <t>This is not real when the percentage is low:</t>
   </si>
   <si>
     <t>G&gt;G/C</t>
@@ -721,8 +722,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,14 +1231,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1285,6 +1287,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1331,7 +1341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1363,9 +1373,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1397,6 +1408,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1572,24 +1584,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
+    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:69">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -2096,7 +2108,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="2" customFormat="1">
+    <row r="4" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -2267,7 +2279,7 @@
       <c r="BP4"/>
       <c r="BQ4"/>
     </row>
-    <row r="5" spans="1:69" s="2" customFormat="1">
+    <row r="5" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -2416,7 +2428,7 @@
       <c r="BP5"/>
       <c r="BQ5"/>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -2532,7 +2544,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -2651,7 +2663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -2767,12 +2779,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -2814,10 +2826,10 @@
         <v>2</v>
       </c>
       <c r="T9" t="s">
+        <v>224</v>
+      </c>
+      <c r="U9" t="s">
         <v>225</v>
-      </c>
-      <c r="U9" t="s">
-        <v>226</v>
       </c>
       <c r="V9">
         <v>824</v>
@@ -2829,22 +2841,22 @@
         <v>0</v>
       </c>
       <c r="AA9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AB9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC9" t="s">
         <v>76</v>
       </c>
       <c r="AF9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG9" t="s">
         <v>228</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AI9" t="s">
         <v>229</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>230</v>
       </c>
       <c r="AJ9" t="s">
         <v>79</v>
@@ -2895,7 +2907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:69" s="2" customFormat="1">
+    <row r="10" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -3066,7 +3078,7 @@
       <c r="BP10"/>
       <c r="BQ10"/>
     </row>
-    <row r="11" spans="1:69" s="2" customFormat="1">
+    <row r="11" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -3253,12 +3265,12 @@
       <c r="BP11"/>
       <c r="BQ11"/>
     </row>
-    <row r="12" spans="1:69" s="2" customFormat="1">
+    <row r="12" spans="1:69" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>195</v>
       </c>
       <c r="B12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -3440,1702 +3452,1852 @@
       <c r="BP12"/>
       <c r="BQ12"/>
     </row>
-    <row r="13" spans="1:69" s="2" customFormat="1">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13" s="1"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-      <c r="AR13"/>
-      <c r="AS13"/>
-      <c r="AT13"/>
-      <c r="AU13"/>
-      <c r="AV13"/>
-      <c r="AW13"/>
-      <c r="AX13"/>
-      <c r="AY13"/>
-      <c r="AZ13"/>
-      <c r="BA13"/>
-      <c r="BB13"/>
-      <c r="BC13"/>
-      <c r="BD13"/>
-      <c r="BE13"/>
-      <c r="BF13"/>
-      <c r="BG13"/>
-      <c r="BH13"/>
-      <c r="BI13"/>
-      <c r="BJ13"/>
-      <c r="BK13"/>
-      <c r="BL13"/>
-      <c r="BM13"/>
-      <c r="BN13"/>
-      <c r="BO13"/>
-      <c r="BP13"/>
-      <c r="BQ13"/>
+    <row r="13" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P13" s="5"/>
     </row>
-    <row r="14" spans="1:69" s="2" customFormat="1" ht="28.5">
-      <c r="A14" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14" s="1"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
-      <c r="AL14"/>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
-      <c r="AQ14"/>
-      <c r="AR14"/>
-      <c r="AS14"/>
-      <c r="AT14"/>
-      <c r="AU14"/>
-      <c r="AV14"/>
-      <c r="AW14"/>
-      <c r="AX14"/>
-      <c r="AY14"/>
-      <c r="AZ14"/>
-      <c r="BA14"/>
-      <c r="BB14"/>
-      <c r="BC14"/>
-      <c r="BD14"/>
-      <c r="BE14"/>
-      <c r="BF14"/>
-      <c r="BG14"/>
-      <c r="BH14"/>
-      <c r="BI14"/>
-      <c r="BJ14"/>
-      <c r="BK14"/>
-      <c r="BL14"/>
-      <c r="BM14"/>
-      <c r="BN14"/>
-      <c r="BO14"/>
-      <c r="BP14"/>
-      <c r="BQ14"/>
+    <row r="14" spans="1:69" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.65">
+      <c r="A14" s="6"/>
+      <c r="P14" s="5"/>
     </row>
-    <row r="15" spans="1:69">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>48030639</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15">
-        <v>100</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
-      </c>
-      <c r="M15" s="5">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="N15">
-        <v>19573</v>
-      </c>
-      <c r="O15">
-        <v>870</v>
-      </c>
-      <c r="P15" s="1">
-        <v>18703870</v>
-      </c>
-      <c r="S15">
-        <v>2</v>
-      </c>
-      <c r="T15" t="s">
-        <v>74</v>
-      </c>
-      <c r="U15" t="s">
-        <v>90</v>
-      </c>
-      <c r="X15">
-        <v>1085</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>83</v>
-      </c>
+    <row r="15" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P15" s="5"/>
     </row>
-    <row r="16" spans="1:69">
-      <c r="A16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>48030639</v>
-      </c>
-      <c r="F16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16">
-        <v>100</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="M16" s="5">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="N16">
-        <v>19573</v>
-      </c>
-      <c r="O16">
-        <v>870</v>
-      </c>
-      <c r="P16" s="1">
-        <v>18703870</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16" t="s">
-        <v>84</v>
-      </c>
-      <c r="U16" t="s">
-        <v>85</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AN16">
-        <v>0</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>0</v>
-      </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG16">
-        <v>1</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>83</v>
-      </c>
+    <row r="16" spans="1:69" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P16" s="5"/>
     </row>
-    <row r="17" spans="1:69" s="2" customFormat="1">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17" s="1"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
-      <c r="AQ17"/>
-      <c r="AR17"/>
-      <c r="AS17"/>
-      <c r="AT17"/>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
-      <c r="BD17"/>
-      <c r="BE17"/>
-      <c r="BF17"/>
-      <c r="BG17"/>
-      <c r="BH17"/>
-      <c r="BI17"/>
-      <c r="BJ17"/>
-      <c r="BK17"/>
-      <c r="BL17"/>
-      <c r="BM17"/>
-      <c r="BN17"/>
-      <c r="BO17"/>
-      <c r="BP17"/>
-      <c r="BQ17"/>
+    <row r="17" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="1:69" ht="26.25">
-      <c r="A18" s="4" t="s">
-        <v>223</v>
-      </c>
+    <row r="18" spans="1:16" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.6">
+      <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:69">
-      <c r="A19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>112175160</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="2">
-        <v>100</v>
-      </c>
-      <c r="K19" s="2">
-        <v>100</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2">
-        <v>7.18</v>
-      </c>
-      <c r="N19" s="2">
-        <v>11261</v>
-      </c>
-      <c r="O19" s="2">
-        <v>809</v>
-      </c>
-      <c r="P19" s="3">
-        <v>10452809</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2">
-        <v>1</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2">
-        <v>1290</v>
-      </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="2"/>
-      <c r="AN19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
-      <c r="AX19" s="2"/>
-      <c r="AY19" s="2"/>
-      <c r="AZ19" s="2"/>
-      <c r="BA19" s="2"/>
-      <c r="BB19" s="2"/>
-      <c r="BC19" s="2"/>
-      <c r="BD19" s="2"/>
-      <c r="BE19" s="2"/>
-      <c r="BF19" s="2"/>
-      <c r="BG19" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P19" s="5"/>
     </row>
-    <row r="20" spans="1:69" s="2" customFormat="1">
-      <c r="A20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="2">
-        <v>17</v>
-      </c>
-      <c r="D20" s="2">
-        <v>37881018</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="2">
-        <v>100</v>
-      </c>
-      <c r="K20" s="2">
-        <v>100</v>
-      </c>
-      <c r="M20" s="2">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="N20" s="2">
-        <v>4725</v>
-      </c>
-      <c r="O20" s="2">
-        <v>196</v>
-      </c>
-      <c r="P20" s="3">
-        <v>4522196</v>
-      </c>
-      <c r="S20" s="2">
-        <v>3</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V20" s="2">
-        <v>2585</v>
-      </c>
-      <c r="W20" s="2">
-        <v>2347</v>
-      </c>
-      <c r="X20" s="2">
-        <v>783</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AF20" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AH20" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="2">
-        <v>87</v>
-      </c>
-      <c r="AT20" s="2">
-        <v>6503</v>
-      </c>
-      <c r="AU20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG20" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ20" s="2" t="s">
-        <v>83</v>
-      </c>
+    <row r="20" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P20" s="5"/>
     </row>
-    <row r="21" spans="1:69" s="2" customFormat="1">
-      <c r="A21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="2">
-        <v>4</v>
-      </c>
-      <c r="D21" s="2">
-        <v>55593616</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="2">
-        <v>100</v>
-      </c>
-      <c r="K21" s="2">
-        <v>100</v>
-      </c>
-      <c r="M21" s="2">
-        <v>15.13</v>
-      </c>
-      <c r="N21" s="2">
-        <v>6684</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1011</v>
-      </c>
-      <c r="P21" s="3">
-        <v>56731011</v>
-      </c>
-      <c r="S21" s="2">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X21" s="2">
-        <v>561</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AK21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ21" s="2" t="s">
-        <v>83</v>
-      </c>
+    <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P21" s="5"/>
     </row>
-    <row r="22" spans="1:69" s="2" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4</v>
-      </c>
-      <c r="D22" s="2">
-        <v>55593648</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="2">
-        <v>100</v>
-      </c>
-      <c r="K22" s="2">
-        <v>100</v>
-      </c>
-      <c r="M22" s="2">
-        <v>5.34</v>
-      </c>
-      <c r="N22" s="2">
-        <v>15212</v>
-      </c>
-      <c r="O22" s="2">
-        <v>812</v>
-      </c>
-      <c r="P22" s="3">
-        <v>14395812</v>
-      </c>
-      <c r="S22" s="2">
-        <v>1</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1801</v>
-      </c>
-      <c r="W22" s="2">
-        <v>1714</v>
-      </c>
-      <c r="X22" s="2">
-        <v>572</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AE22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="2">
-        <v>78</v>
-      </c>
-      <c r="AT22" s="2">
-        <v>6503</v>
-      </c>
-      <c r="AU22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AX22" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AZ22" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ22" s="2" t="s">
-        <v>83</v>
-      </c>
+    <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="1:69" s="2" customFormat="1">
-      <c r="A23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2">
-        <v>116339642</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J23" s="2">
-        <v>100</v>
-      </c>
-      <c r="K23" s="2">
-        <v>100</v>
-      </c>
-      <c r="M23" s="2">
-        <v>51.73</v>
-      </c>
-      <c r="N23" s="2">
-        <v>5335</v>
-      </c>
-      <c r="O23" s="2">
-        <v>2760</v>
-      </c>
-      <c r="P23" s="3">
-        <v>25752760</v>
-      </c>
-      <c r="S23" s="2">
-        <v>1</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF23" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG23" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH23" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG23" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ23" s="2" t="s">
-        <v>83</v>
-      </c>
+    <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="1:69">
-      <c r="A24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="2">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2">
-        <v>116340159</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="2">
-        <v>100</v>
-      </c>
-      <c r="K24" s="2">
-        <v>100</v>
-      </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2">
-        <v>3.61</v>
-      </c>
-      <c r="N24" s="2">
-        <v>2547</v>
-      </c>
-      <c r="O24" s="2">
-        <v>92</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2">
-        <v>1</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2">
-        <v>341</v>
-      </c>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH24" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK24" s="2"/>
-      <c r="BL24" s="2"/>
-      <c r="BM24" s="2"/>
-      <c r="BN24" s="2"/>
-      <c r="BO24" s="2"/>
-      <c r="BP24" s="2"/>
-      <c r="BQ24" s="2"/>
+    <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P25" s="5"/>
     </row>
-    <row r="25" spans="1:69">
-      <c r="A25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="2">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2">
-        <v>116381047</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J25" s="2">
-        <v>100</v>
-      </c>
-      <c r="K25" s="2">
-        <v>100</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2">
-        <v>3.81</v>
-      </c>
-      <c r="N25" s="2">
-        <v>4929</v>
-      </c>
-      <c r="O25" s="2">
-        <v>188</v>
-      </c>
-      <c r="P25" s="3">
-        <v>4741188</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2">
-        <v>1</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="U25" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2">
-        <v>557</v>
-      </c>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG25" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="AH25" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV25" s="2"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="2"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
-      <c r="BG25" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ25" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK25" s="2"/>
-      <c r="BL25" s="2"/>
-      <c r="BM25" s="2"/>
-      <c r="BN25" s="2"/>
-      <c r="BO25" s="2"/>
-      <c r="BP25" s="2"/>
-      <c r="BQ25" s="2"/>
+    <row r="26" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P26" s="5"/>
     </row>
-    <row r="26" spans="1:69" s="2" customFormat="1">
-      <c r="A26" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" s="2">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2">
-        <v>89717706</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J26" s="2">
-        <v>100</v>
-      </c>
-      <c r="K26" s="2">
-        <v>100</v>
-      </c>
-      <c r="M26" s="2">
-        <v>15.37</v>
-      </c>
-      <c r="N26" s="2">
-        <v>11977</v>
-      </c>
-      <c r="O26" s="2">
-        <v>1841</v>
-      </c>
-      <c r="P26" s="3">
-        <v>101361841</v>
-      </c>
-      <c r="S26" s="2">
-        <v>1</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="U26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="X26" s="2">
-        <v>244</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB26" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG26" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ26" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:69">
-      <c r="A27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C27" s="2">
-        <v>10</v>
-      </c>
-      <c r="D27" s="2">
-        <v>89717707</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="2">
-        <v>100</v>
-      </c>
-      <c r="K27" s="2">
-        <v>100</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2">
-        <v>3.02</v>
-      </c>
-      <c r="N27" s="2">
-        <v>10126</v>
-      </c>
-      <c r="O27" s="2">
-        <v>306</v>
-      </c>
-      <c r="P27" s="3">
-        <v>9820306</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2">
-        <v>1</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB27" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG27" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH27" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BH27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BI27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BJ27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BK27" s="2"/>
-      <c r="BL27" s="2"/>
-      <c r="BM27" s="2"/>
-      <c r="BN27" s="2"/>
-      <c r="BO27" s="2"/>
-      <c r="BP27" s="2"/>
-      <c r="BQ27" s="2"/>
+    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P27" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ3"/>
+  <sheetViews>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>48030639</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2">
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="M2" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="N2">
+        <v>19573</v>
+      </c>
+      <c r="O2">
+        <v>870</v>
+      </c>
+      <c r="P2" s="1">
+        <v>18703870</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2">
+        <v>1085</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG2">
+        <v>1</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>48030639</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="N3">
+        <v>19573</v>
+      </c>
+      <c r="O3">
+        <v>870</v>
+      </c>
+      <c r="P3" s="1">
+        <v>18703870</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>112175160</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="4">
+        <v>100</v>
+      </c>
+      <c r="K2" s="4">
+        <v>100</v>
+      </c>
+      <c r="M2" s="4">
+        <v>7.18</v>
+      </c>
+      <c r="N2" s="4">
+        <v>11261</v>
+      </c>
+      <c r="O2" s="4">
+        <v>809</v>
+      </c>
+      <c r="P2" s="5">
+        <v>10452809</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="4">
+        <v>1290</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG2" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="4">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4">
+        <v>37881018</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+      <c r="K3" s="4">
+        <v>100</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N3" s="4">
+        <v>4725</v>
+      </c>
+      <c r="O3" s="4">
+        <v>196</v>
+      </c>
+      <c r="P3" s="5">
+        <v>4522196</v>
+      </c>
+      <c r="S3" s="4">
+        <v>3</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="V3" s="4">
+        <v>2585</v>
+      </c>
+      <c r="W3" s="4">
+        <v>2347</v>
+      </c>
+      <c r="X3" s="4">
+        <v>783</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>87</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>6503</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>55593616</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="4">
+        <v>100</v>
+      </c>
+      <c r="K4" s="4">
+        <v>100</v>
+      </c>
+      <c r="M4" s="4">
+        <v>15.13</v>
+      </c>
+      <c r="N4" s="4">
+        <v>6684</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1011</v>
+      </c>
+      <c r="P4" s="5">
+        <v>56731011</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="4">
+        <v>561</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG4" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>55593648</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100</v>
+      </c>
+      <c r="K5" s="4">
+        <v>100</v>
+      </c>
+      <c r="M5" s="4">
+        <v>5.34</v>
+      </c>
+      <c r="N5" s="4">
+        <v>15212</v>
+      </c>
+      <c r="O5" s="4">
+        <v>812</v>
+      </c>
+      <c r="P5" s="5">
+        <v>14395812</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="V5" s="4">
+        <v>1801</v>
+      </c>
+      <c r="W5" s="4">
+        <v>1714</v>
+      </c>
+      <c r="X5" s="4">
+        <v>572</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>78</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>6503</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG5" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4">
+        <v>116339642</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100</v>
+      </c>
+      <c r="K6" s="4">
+        <v>100</v>
+      </c>
+      <c r="M6" s="4">
+        <v>51.73</v>
+      </c>
+      <c r="N6" s="4">
+        <v>5335</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2760</v>
+      </c>
+      <c r="P6" s="5">
+        <v>25752760</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ6" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>116340159</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="4">
+        <v>100</v>
+      </c>
+      <c r="K7" s="4">
+        <v>100</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3.61</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2547</v>
+      </c>
+      <c r="O7" s="4">
+        <v>92</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S7" s="4">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" s="4">
+        <v>341</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG7" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ7" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4">
+        <v>116381047</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="4">
+        <v>100</v>
+      </c>
+      <c r="K8" s="4">
+        <v>100</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3.81</v>
+      </c>
+      <c r="N8" s="4">
+        <v>4929</v>
+      </c>
+      <c r="O8" s="4">
+        <v>188</v>
+      </c>
+      <c r="P8" s="5">
+        <v>4741188</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" s="4">
+        <v>557</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG8" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ8" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="4">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>89717706</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" s="4">
+        <v>100</v>
+      </c>
+      <c r="K9" s="4">
+        <v>100</v>
+      </c>
+      <c r="M9" s="4">
+        <v>15.37</v>
+      </c>
+      <c r="N9" s="4">
+        <v>11977</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1841</v>
+      </c>
+      <c r="P9" s="5">
+        <v>101361841</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" s="4">
+        <v>244</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG9" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ9" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>89717707</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="4">
+        <v>100</v>
+      </c>
+      <c r="K10" s="4">
+        <v>100</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3.02</v>
+      </c>
+      <c r="N10" s="4">
+        <v>10126</v>
+      </c>
+      <c r="O10" s="4">
+        <v>306</v>
+      </c>
+      <c r="P10" s="5">
+        <v>9820306</v>
+      </c>
+      <c r="S10" s="4">
+        <v>1</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="BG10" s="4">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BI10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>